--- a/files/PE/Отчет.ТК.ФВиС.130214.16.09.2022.xlsx
+++ b/files/PE/Отчет.ТК.ФВиС.130214.16.09.2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leti\files\PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A96AC-BEB1-48D7-BC06-5EA9EEA90851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF7092-1C86-4792-B1ED-D435AC3BC2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FStUFGBIrhmDHZZbm5k2vQN290l3b4m+8PcORGcwYSMFHaSexAbMgV4Xxdq/beNeca2JvVJJydQ8vvlUBz1frg==" workbookSaltValue="9Zg4m7+A7UiUYmMcpAzjJw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -681,6 +681,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -689,20 +723,65 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -722,73 +801,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -798,18 +810,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:S30"/>
+      <selection activeCell="H10" sqref="H10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,184 +1185,184 @@
   <sheetData>
     <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="44" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>130214</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="17">
         <v>1302</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="18">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="27">
         <v>4</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="18">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="27">
         <v>5</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="18">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="27">
         <v>6</v>
       </c>
     </row>
@@ -1370,65 +1370,65 @@
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="24">
         <v>44818</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="46">
-        <v>44454</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="19"/>
+      <c r="I8" s="24">
+        <v>44819</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="24">
         <v>44820</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="19"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:19" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
       <c r="R9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1440,36 +1440,36 @@
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="11">
         <v>3</v>
       </c>
       <c r="G10" s="12">
         <v>15</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="11">
         <v>3</v>
       </c>
       <c r="M10" s="12">
         <v>15</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="11">
         <v>3</v>
       </c>
@@ -1481,36 +1481,36 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="11">
         <v>3</v>
       </c>
       <c r="G11" s="13">
         <v>20</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="11">
         <v>3</v>
       </c>
       <c r="M11" s="13">
         <v>20</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="11">
         <v>3</v>
       </c>
@@ -1522,36 +1522,36 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="11">
         <v>3</v>
       </c>
       <c r="G12" s="13">
         <v>20</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="11">
         <v>3</v>
       </c>
       <c r="M12" s="13">
         <v>20</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
       <c r="R12" s="11">
         <v>3</v>
       </c>
@@ -1563,36 +1563,36 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="11">
         <v>3</v>
       </c>
       <c r="G13" s="13">
         <v>20</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="11">
         <v>3</v>
       </c>
       <c r="M13" s="13">
         <v>20</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="11">
         <v>3</v>
       </c>
@@ -1604,36 +1604,36 @@
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="11">
         <v>3</v>
       </c>
       <c r="G14" s="13">
         <v>20</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="11">
         <v>3</v>
       </c>
       <c r="M14" s="13">
         <v>20</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
       <c r="R14" s="11">
         <v>3</v>
       </c>
@@ -1645,36 +1645,36 @@
       <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="11">
         <v>3</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="11">
         <v>3</v>
       </c>
       <c r="M15" s="13">
         <v>1</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="11">
         <v>3</v>
       </c>
@@ -1686,36 +1686,36 @@
       <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
       <c r="G16" s="13">
         <v>20</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="11">
         <v>3</v>
       </c>
       <c r="M16" s="13">
         <v>20</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
       <c r="R16" s="11">
         <v>3</v>
       </c>
@@ -1727,36 +1727,36 @@
       <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="11">
         <v>3</v>
       </c>
       <c r="G17" s="13">
         <v>15</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="11">
         <v>3</v>
       </c>
       <c r="M17" s="13">
         <v>15</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="11">
         <v>3</v>
       </c>
@@ -1768,22 +1768,22 @@
       <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="11"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
       <c r="R18" s="11"/>
       <c r="S18" s="13"/>
     </row>
@@ -1791,22 +1791,22 @@
       <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="11"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="11"/>
       <c r="S19" s="13"/>
     </row>
@@ -1814,22 +1814,22 @@
       <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="11"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
       <c r="R20" s="11"/>
       <c r="S20" s="13"/>
     </row>
@@ -1837,22 +1837,22 @@
       <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="11"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
       <c r="R21" s="11"/>
       <c r="S21" s="13"/>
     </row>
@@ -1860,24 +1860,24 @@
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="11"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
       <c r="R22" s="11"/>
       <c r="S22" s="13"/>
     </row>
@@ -1885,22 +1885,22 @@
       <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="11"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="11"/>
       <c r="S23" s="13"/>
     </row>
@@ -1908,22 +1908,22 @@
       <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="11"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
       <c r="R24" s="11"/>
       <c r="S24" s="13"/>
     </row>
@@ -1931,133 +1931,203 @@
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="14"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="29" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="29" t="s">
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="26" t="s">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="28"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="53"/>
     </row>
     <row r="29" spans="1:19" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="51" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="51" t="s">
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="53"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19" ht="256.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="56" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="56" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="55"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="48"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="mm0pc59zKLHkMki+oWyNtUWa3idw/QgGFq0qbViVgshtJ6YwmTer4CPoU4nwWrdhQcyscash6bxadbSybeZRXg==" saltValue="ETnaREOldJT+3kp+a990XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="86">
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="H23:K23"/>
@@ -2074,76 +2144,6 @@
     <mergeCell ref="N23:Q23"/>
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N3:S4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{F2A9EF53-BCD7-4A01-A470-E4772BD54AD4}"/>
